--- a/public/data/soil/soil_table_botswana.xlsx
+++ b/public/data/soil/soil_table_botswana.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>66.3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>301710.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.543</v>
+        <v>32.006</v>
       </c>
     </row>
     <row r="3">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>469209.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>36.153</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>256.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106432.7</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.738</v>
+        <v>14.604</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>231895.4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>29.642</v>
+        <v>30.086</v>
       </c>
     </row>
     <row r="6">
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>361.8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>193240.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>19.229</v>
+        <v>18.533</v>
       </c>
     </row>
     <row r="7">
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>255.3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>580354.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>54.4</v>
+        <v>54.398</v>
       </c>
     </row>
     <row r="8">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>91020</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.534</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="9">
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>76.8</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>625881</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>63.975</v>
+        <v>77.086</v>
       </c>
     </row>
     <row r="10">
@@ -1008,25 +1008,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>82.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>168.7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>270732.9</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.295</v>
+        <v>18.387</v>
       </c>
     </row>
     <row r="11">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3887.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>9016.3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>528.4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1265256.7</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>29.79</v>
+        <v>38.06</v>
       </c>
     </row>
     <row r="14">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>363573.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.074</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>350395.4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>10.031</v>
+        <v>17.334</v>
       </c>
     </row>
     <row r="17">
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>76.4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>504276.1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>21.378</v>
+        <v>22.073</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>161301.1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>20.282</v>
+        <v>22.196</v>
       </c>
     </row>
     <row r="19">
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>577.2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>207993.3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>23.354</v>
+        <v>21.652</v>
       </c>
     </row>
     <row r="20">
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>744.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>484429.5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>21.593</v>
+        <v>23.875</v>
       </c>
     </row>
     <row r="21">
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1434.9</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>975.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>141235.6</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>13.919</v>
+        <v>14.321</v>
       </c>
     </row>
     <row r="23">
@@ -1463,25 +1463,25 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1839.7</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>631261.4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.371</v>
+        <v>0.362</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>53.581</v>
+        <v>60.846</v>
       </c>
     </row>
     <row r="24">
@@ -1498,25 +1498,25 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>538.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2212.4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>677516.1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.093</v>
+        <v>0.205</v>
       </c>
       <c r="K24" t="n">
-        <v>38.077</v>
+        <v>46.629</v>
       </c>
     </row>
     <row r="25">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2014.9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>45038.4</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.491</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="27">
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>221.5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47789.9</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.785</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="28">
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1953.4</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>127663.2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.782</v>
+        <v>10.074</v>
       </c>
     </row>
     <row r="29">
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2069.6</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>209319.4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>10.339</v>
+        <v>12.364</v>
       </c>
     </row>
     <row r="30">
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>155691.2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>16.034</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="31">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>269.4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.208</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_botswana.xlsx
+++ b/public/data/soil/soil_table_botswana.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9107.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>832.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2677.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5826.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1502.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12328.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1573</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20618.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1535.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1806</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>812.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>11676.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>19352.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>16182.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41526.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1071.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1501,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6794.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>252.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9804.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>11832.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5888.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9747.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>9472</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
